--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/421059fd2d32f2d6/문서/GitHub/AdiposeCounter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{9EFDB996-6335-49E1-B14A-0860C1B87872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BA188BCE85087CC7D9DA0A74D0EAA767F64B9A11" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58EBA0BB-2465-485B-8DB3-52AC5215EBD0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
   <si>
-    <t>CK1_1_0003.jpg</t>
+    <t>testimage.jpg</t>
   </si>
   <si>
     <t>CK1_1_0002.jpg</t>
+  </si>
+  <si>
+    <t>CK1_1_0004.jpg</t>
+  </si>
+  <si>
+    <t>CK1_1_0003.jpg</t>
   </si>
 </sst>
 </file>
@@ -350,220 +356,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>631.33697000000006</v>
+        <v>745.23809523809518</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>1566.666666666667</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2614.2857142857142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>3267.4603174603171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1739.68253968254</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>2670.63492063492</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>43368.253968253957</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>113.32523</v>
+        <v>3182.539682539682</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1503.1746031746029</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>32799.206349206353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1888.0952380952381</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>6138.8888888888887</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>43368.253968253957</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>15.608639999999999</v>
+        <v>3182.539682539682</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1937.301587301587</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>228.27636000000001</v>
+        <v>993.65079365079362</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>143.65079365079359</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>250.71378000000001</v>
+        <v>215.8730158730159</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>461.90476190476193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>83.246080000000006</v>
+        <v>330.15873015873012</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>66.661900000000003</v>
+        <v>696.03174603174602</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>158.68783999999999</v>
+        <v>1303.968253968254</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>90.23745000000001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>146.00582</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>115.27631</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>301.44186000000002</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>262.09508</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>548.09089000000006</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>86.497880000000009</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>115.4389</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>151.20869999999999</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>466.95848000000001</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>394.60593000000011</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>151.85906</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>185.3526</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>347.45483000000002</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>331.52100999999999</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>562.39881000000003</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>38.046059999999997</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>79.994280000000003</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -1,62 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/421059fd2d32f2d6/문서/GitHub/AdiposeCounter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BA188BCE85087CC7D9DA0A74D0EAA767F64B9A11" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58EBA0BB-2465-485B-8DB3-52AC5215EBD0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
-  <si>
-    <t>testimage.jpg</t>
-  </si>
-  <si>
-    <t>CK1_1_0002.jpg</t>
-  </si>
-  <si>
-    <t>CK1_1_0004.jpg</t>
-  </si>
-  <si>
-    <t>CK1_1_0003.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,24 +50,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -355,175 +392,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="15.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>745.23809523809518</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="n">
+        <v>745.2380952380952</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1566.666666666667</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>2614.285714285714</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>3267.460317460317</v>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="I1" t="n">
+        <v>1739.68253968254</v>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="K1" t="n">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>1566.666666666667</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2614.2857142857142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>3267.4603174603171</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>1739.68253968254</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="M1" t="n">
         <v>2670.63492063492</v>
       </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1">
-        <v>43368.253968253957</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>43368.25396825396</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="Q1" t="n">
+        <v>7433.333333333333</v>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="S1" t="n">
+        <v>3238.095238095238</v>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>3182.539682539682</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1503.1746031746029</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>32799.206349206353</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1888.0952380952381</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>6138.8888888888887</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>43368.253968253957</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1503.174603174603</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>32799.20634920635</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1888.095238095238</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6138.888888888889</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>43368.25396825396</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>10298.4126984127</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>3921.428571428571</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3182.539682539682</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1937.301587301587</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>993.65079365079362</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>143.65079365079359</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>993.6507936507936</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>143.6507936507936</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>215.8730158730159</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>461.90476190476193</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>330.15873015873012</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>696.03174603174602</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>461.9047619047619</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>330.1587301587301</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>696.031746031746</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>1303.968253968254</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>testimage.jpg</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -489,6 +489,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="U1" t="n">
+        <v>4409.491607293806</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -497,6 +497,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="W1" t="n">
+        <v>4610.252384977661</v>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -563,6 +571,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="W2" t="n">
+        <v>2988.165680473373</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -577,6 +593,14 @@
         <v>1937.301587301587</v>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>1495.894215674436</v>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>CK1_1_0002.jpg</t>
         </is>

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:AP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -505,6 +505,78 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Y1" t="n">
+        <v>4237.109044801354</v>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AA1" t="n">
+        <v>4362.395845912331</v>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AC1" t="n">
+        <v>1476.270981765487</v>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AE1" t="n">
+        <v>4348.810530129213</v>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG1" t="n">
+        <v>1718.391498611279</v>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI1" t="n">
+        <v>1692.428450670209</v>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="AK1" t="n">
+        <v>2426.337398864872</v>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>CK1_1_1.jpg</t>
+        </is>
+      </c>
+      <c r="AM1" t="n">
+        <v>3343.19526627219</v>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AO1" t="n">
+        <v>1597.633136094675</v>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -579,6 +651,54 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Y2" t="n">
+        <v>2370.184760294651</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>1766.091051805338</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>1497.403695205893</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>781.9103972950129</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
+        <v>3195.870064001933</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>3207.34210844101</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -605,6 +725,38 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="AC3" t="n">
+        <v>1772.43086583746</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>3259.570100229442</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>3401.15928028016</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>1615.746890472165</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -623,6 +775,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="AC4" t="n">
+        <v>3475.12377732158</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>758.362516604275</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>1151.430986595822</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -641,6 +817,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="AC5" t="n">
+        <v>4354.546552348751</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>552.4695085134647</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>2689.288733244778</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -651,6 +851,30 @@
           <t>testimage.jpg</t>
         </is>
       </c>
+      <c r="AC6" t="n">
+        <v>3406.895302499699</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>1521.253471802923</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>4549.269411906776</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -661,6 +885,30 @@
           <t>testimage.jpg</t>
         </is>
       </c>
+      <c r="AC7" t="n">
+        <v>1052.711025238498</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
+        <v>4256.732278710301</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>2487.622267842049</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -669,6 +917,1804 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>testimage.jpg</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>3263.494747011231</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG8" t="n">
+        <v>3229.682405506582</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>1030.068832266635</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="AC9" t="n">
+        <v>2322.787103006884</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG9" t="n">
+        <v>3363.422291993722</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v>2261.804129935998</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="AC10" t="n">
+        <v>4147.144064726484</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG10" t="n">
+        <v>2183.613090206497</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>1512.498490520469</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="AC11" t="n">
+        <v>3846.75763796643</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
+        <v>3129.754860524092</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>2379.845429295979</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="AC12" t="n">
+        <v>4583.685545224008</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG12" t="n">
+        <v>4132.049269411908</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI12" t="n">
+        <v>1908.585919574931</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AC13" t="n">
+        <v>1718.089602704988</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>3642.97790121966</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI13" t="n">
+        <v>3565.390653302742</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="AC14" t="n">
+        <v>4335.527110252386</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
+        <v>390.6533027412149</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI14" t="n">
+        <v>1635.973916193697</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="AC15" t="n">
+        <v>2601.437024513948</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG15" t="n">
+        <v>1749.788672865596</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI15" t="n">
+        <v>3059.41311435817</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="AC16" t="n">
+        <v>1414.986112788311</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG16" t="n">
+        <v>3005.977538944573</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI16" t="n">
+        <v>3738.377007607778</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="AC17" t="n">
+        <v>3191.34162540756</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG17" t="n">
+        <v>2411.544499456588</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI17" t="n">
+        <v>1366.984663687961</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="AC18" t="n">
+        <v>4217.485810892405</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG18" t="n">
+        <v>3321.15686511291</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI18" t="n">
+        <v>2729.440888781549</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="AC19" t="n">
+        <v>3704.564666103128</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG19" t="n">
+        <v>4019.442096365174</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI19" t="n">
+        <v>1187.05470353822</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="AC20" t="n">
+        <v>1762.166405023548</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG20" t="n">
+        <v>3706.97983335346</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI20" t="n">
+        <v>1844.583987441131</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AC21" t="n">
+        <v>3032.544378698226</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG21" t="n">
+        <v>1648.65354425794</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI21" t="n">
+        <v>2273.879966187659</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="AC22" t="n">
+        <v>3271.645936481102</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG22" t="n">
+        <v>4218.995290423863</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI22" t="n">
+        <v>3165.680473372782</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="AC23" t="n">
+        <v>462.202632532303</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG23" t="n">
+        <v>2545.284385943727</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI23" t="n">
+        <v>3018.959062915108</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="AC24" t="n">
+        <v>3010.807873445237</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG24" t="n">
+        <v>1374.83395725154</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI24" t="n">
+        <v>1463.289457794953</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="AC25" t="n">
+        <v>2578.794831542085</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG25" t="n">
+        <v>2572.455017509963</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI25" t="n">
+        <v>1632.65306122449</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="AC26" t="n">
+        <v>2242.18089602705</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG26" t="n">
+        <v>1311.737712836614</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI26" t="n">
+        <v>1711.447892766574</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="AC27" t="n">
+        <v>779.1933341383892</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG27" t="n">
+        <v>1694.239826107958</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI27" t="n">
+        <v>1644.728897476151</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="AC28" t="n">
+        <v>3058.205530733004</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG28" t="n">
+        <v>2248.21881415288</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI28" t="n">
+        <v>2497.584832749668</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="AC29" t="n">
+        <v>408.465161212414</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG29" t="n">
+        <v>1441.251056635672</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI29" t="n">
+        <v>1617.860161816206</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="AC30" t="n">
+        <v>3376.101920057965</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG30" t="n">
+        <v>3041.299359980679</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI30" t="n">
+        <v>1052.711025238498</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="AC31" t="n">
+        <v>2451.696654993359</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG31" t="n">
+        <v>3714.225335104457</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI31" t="n">
+        <v>1946.32290786137</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="AC32" t="n">
+        <v>1870.848931288492</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG32" t="n">
+        <v>1556.877188745321</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI32" t="n">
+        <v>1983.456104335226</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="AC33" t="n">
+        <v>1198.526747977298</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG33" t="n">
+        <v>2772.008211568652</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI33" t="n">
+        <v>2433.582900615868</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="AC34" t="n">
+        <v>2036.589783842531</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG34" t="n">
+        <v>3992.875256611521</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI34" t="n">
+        <v>3759.811616954475</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="AC35" t="n">
+        <v>2289.276657408526</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG35" t="n">
+        <v>1899.227146479894</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI35" t="n">
+        <v>842.289578553315</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="AC36" t="n">
+        <v>1103.429537495472</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG36" t="n">
+        <v>1941.794469266997</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI36" t="n">
+        <v>2782.876464195146</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="AC37" t="n">
+        <v>2590.870667793745</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG37" t="n">
+        <v>1857.867407317957</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI37" t="n">
+        <v>2918.427726120035</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="AC38" t="n">
+        <v>1739.524212051685</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG38" t="n">
+        <v>1826.772128969932</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI38" t="n">
+        <v>1722.61804129936</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="AC39" t="n">
+        <v>3798.75618886608</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG39" t="n">
+        <v>1171.959908223645</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI39" t="n">
+        <v>3372.479169182467</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="AC40" t="n">
+        <v>637.3022581813792</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG40" t="n">
+        <v>2007.003985025963</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI40" t="n">
+        <v>1540.876705711871</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="AC41" t="n">
+        <v>1590.387634343679</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG41" t="n">
+        <v>2237.652457432678</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI41" t="n">
+        <v>2218.331119430021</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="AC42" t="n">
+        <v>1350.078492935636</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG42" t="n">
+        <v>1067.805820553074</v>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI42" t="n">
+        <v>2616.229923922232</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="AC43" t="n">
+        <v>2826.953266513707</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG43" t="n">
+        <v>857.6862697741821</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI43" t="n">
+        <v>1937.869822485208</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="AC44" t="n">
+        <v>2321.579519381718</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG44" t="n">
+        <v>1709.032725516242</v>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI44" t="n">
+        <v>1038.220021736505</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="AC45" t="n">
+        <v>1753.713319647386</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG45" t="n">
+        <v>1009.23801473252</v>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI45" t="n">
+        <v>2206.557179084652</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="AC46" t="n">
+        <v>4091.595217968845</v>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG46" t="n">
+        <v>2313.428329911847</v>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI46" t="n">
+        <v>1790.242724308659</v>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="AC47" t="n">
+        <v>1139.05325443787</v>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG47" t="n">
+        <v>2528.680111097694</v>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI47" t="n">
+        <v>1626.61514309866</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="AC48" t="n">
+        <v>812.4018838304554</v>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG48" t="n">
+        <v>1674.012800386427</v>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI48" t="n">
+        <v>1039.12570945538</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="AC49" t="n">
+        <v>1961.719599082237</v>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG49" t="n">
+        <v>1113.392102403092</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI49" t="n">
+        <v>820.2511773940347</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="AC50" t="n">
+        <v>835.6478686149018</v>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG50" t="n">
+        <v>2011.230527714045</v>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI50" t="n">
+        <v>2275.389445719116</v>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="AC51" t="n">
+        <v>1980.739041178602</v>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG51" t="n">
+        <v>790.3634826711751</v>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI51" t="n">
+        <v>1914.020045888178</v>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="AC52" t="n">
+        <v>1698.164472889748</v>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG52" t="n">
+        <v>1662.238860041058</v>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI52" t="n">
+        <v>2939.258543654149</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="AC53" t="n">
+        <v>774.0611037314336</v>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG53" t="n">
+        <v>4476.814394396813</v>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI53" t="n">
+        <v>6178.903514068351</v>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="AC54" t="n">
+        <v>1920.057964014008</v>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG54" t="n">
+        <v>1691.522762951335</v>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI54" t="n">
+        <v>2027.231010747495</v>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="AC55" t="n">
+        <v>1920.661755826591</v>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG55" t="n">
+        <v>2866.501630237894</v>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI55" t="n">
+        <v>1546.61272793141</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="AC56" t="n">
+        <v>648.1705108078736</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG56" t="n">
+        <v>1805.941311435817</v>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI56" t="n">
+        <v>1344.342470716097</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="AC57" t="n">
+        <v>1472.346334983698</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG57" t="n">
+        <v>2160.065209515759</v>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI57" t="n">
+        <v>1588.57625890593</v>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="AC58" t="n">
+        <v>762.8909551986477</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG58" t="n">
+        <v>1657.408525540394</v>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI58" t="n">
+        <v>2643.400555488468</v>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="AC59" t="n">
+        <v>1701.183431952663</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG59" t="n">
+        <v>2438.715131022824</v>
+      </c>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI59" t="n">
+        <v>1406.533027412149</v>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="AC60" t="n">
+        <v>2933.824417340902</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG60" t="n">
+        <v>1619.369641347664</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI60" t="n">
+        <v>1971.682163989857</v>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="AC61" t="n">
+        <v>1888.660789759691</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG61" t="n">
+        <v>2982.127762347543</v>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI61" t="n">
+        <v>1739.826107957977</v>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="AC62" t="n">
+        <v>1725.335104455984</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG62" t="n">
+        <v>1803.224248279194</v>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI62" t="n">
+        <v>1232.037193575655</v>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="AC63" t="n">
+        <v>1701.787223765246</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG63" t="n">
+        <v>1429.477116290303</v>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI63" t="n">
+        <v>974.8218814152882</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="AC64" t="n">
+        <v>1896.51008332327</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG64" t="n">
+        <v>1657.408525540394</v>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI64" t="n">
+        <v>2570.039850259631</v>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="AC65" t="n">
+        <v>563.0358652336676</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG65" t="n">
+        <v>1373.324477720082</v>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI65" t="n">
+        <v>1776.657408525541</v>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="AC66" t="n">
+        <v>2326.711749788673</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG66" t="n">
+        <v>1667.371090448014</v>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI66" t="n">
+        <v>1395.966670691946</v>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="AC67" t="n">
+        <v>3361.309020649681</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG67" t="n">
+        <v>1969.870788552108</v>
+      </c>
+      <c r="AH67" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI67" t="n">
+        <v>1683.673469387755</v>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="AC68" t="n">
+        <v>884.253109527835</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG68" t="n">
+        <v>3269.532665137061</v>
+      </c>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI68" t="n">
+        <v>2883.105905083928</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="AC69" t="n">
+        <v>1180.111097693516</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG69" t="n">
+        <v>2216.821639898563</v>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI69" t="n">
+        <v>2445.356840961237</v>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="AC70" t="n">
+        <v>2474.036952058931</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG70" t="n">
+        <v>1148.412027532907</v>
+      </c>
+      <c r="AH70" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI70" t="n">
+        <v>2746.950851346456</v>
+      </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="AC71" t="n">
+        <v>2216.519743992272</v>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG71" t="n">
+        <v>735.1165318198287</v>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI71" t="n">
+        <v>2874.954715614057</v>
+      </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="AC72" t="n">
+        <v>2226.1804129936</v>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AG72" t="n">
+        <v>2199.311677333656</v>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI72" t="n">
+        <v>2954.655234875016</v>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="AC73" t="n">
+        <v>1653.785774664896</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI73" t="n">
+        <v>2658.797246709335</v>
+      </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="AC74" t="n">
+        <v>2022.098780340539</v>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI74" t="n">
+        <v>1016.181620577225</v>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="AC75" t="n">
+        <v>2060.741456345852</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI75" t="n">
+        <v>578.7344523608261</v>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="AC76" t="n">
+        <v>1697.258785170873</v>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI76" t="n">
+        <v>648.7743026204566</v>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="AC77" t="n">
+        <v>1393.249607535322</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="AI77" t="n">
+        <v>2237.954353338969</v>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="AI78" t="n">
+        <v>1779.374471682164</v>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="AI79" t="n">
+        <v>1455.440164231373</v>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
         </is>
       </c>
     </row>

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP79"/>
+  <dimension ref="A1:BF100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -577,6 +577,70 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="AQ1" t="n">
+        <v>1764.279676367589</v>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS1" t="n">
+        <v>2439.620818741698</v>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU1" t="n">
+        <v>2002.173650525299</v>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW1" t="n">
+        <v>1212.112063760416</v>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY1" t="n">
+        <v>2415.469146238378</v>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA1" t="n">
+        <v>2186.632049269412</v>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BC1" t="n">
+        <v>1947.530491486536</v>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
+      <c r="BE1" t="n">
+        <v>1947.530491486536</v>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -699,6 +763,70 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ2" t="n">
+        <v>2031.457553435576</v>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS2" t="n">
+        <v>1805.035623716943</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>2031.155657529284</v>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW2" t="n">
+        <v>1460.572394638329</v>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY2" t="n">
+        <v>2093.648110131627</v>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA2" t="n">
+        <v>2059.231976814395</v>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BC2" t="n">
+        <v>2667.854123898081</v>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
+      <c r="BE2" t="n">
+        <v>2667.854123898081</v>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -757,6 +885,70 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ3" t="n">
+        <v>2139.536287887937</v>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS3" t="n">
+        <v>2438.715131022824</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>2443.545465523488</v>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW3" t="n">
+        <v>1801.714768747736</v>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY3" t="n">
+        <v>1613.029827315542</v>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA3" t="n">
+        <v>1537.253954836373</v>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BC3" t="n">
+        <v>2163.386064484966</v>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
+      <c r="BE3" t="n">
+        <v>2163.386064484966</v>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -799,6 +991,70 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ4" t="n">
+        <v>927.1223282212295</v>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS4" t="n">
+        <v>1357.927786499215</v>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU4" t="n">
+        <v>3694.602101195509</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW4" t="n">
+        <v>1662.842651853641</v>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY4" t="n">
+        <v>2617.73940345369</v>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA4" t="n">
+        <v>1816.809564062312</v>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BC4" t="n">
+        <v>3066.054824296583</v>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
+      <c r="BE4" t="n">
+        <v>3066.054824296583</v>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -841,6 +1097,70 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ5" t="n">
+        <v>1797.488226059655</v>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS5" t="n">
+        <v>1913.416254075595</v>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU5" t="n">
+        <v>1489.554401642314</v>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW5" t="n">
+        <v>2092.440526506461</v>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY5" t="n">
+        <v>1661.635068228475</v>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA5" t="n">
+        <v>2844.765124984906</v>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BC5" t="n">
+        <v>2446.564424586403</v>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
+      <c r="BE5" t="n">
+        <v>2446.564424586403</v>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -875,6 +1195,70 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ6" t="n">
+        <v>1687.598116169545</v>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS6" t="n">
+        <v>853.7616229923924</v>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU6" t="n">
+        <v>1090.146117618645</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW6" t="n">
+        <v>2105.723946383288</v>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY6" t="n">
+        <v>1680.956406231132</v>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA6" t="n">
+        <v>1959.304431831905</v>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BC6" t="n">
+        <v>2320.673831662843</v>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
+      <c r="BE6" t="n">
+        <v>2320.673831662843</v>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -909,6 +1293,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ7" t="n">
+        <v>1883.830455259027</v>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS7" t="n">
+        <v>2194.1794469267</v>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU7" t="n">
+        <v>3239.34307450791</v>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW7" t="n">
+        <v>1802.620456466611</v>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY7" t="n">
+        <v>960.9346697258787</v>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA7" t="n">
+        <v>3153.906533027413</v>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE7" t="n">
+        <v>2902.427243086584</v>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -943,6 +1383,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ8" t="n">
+        <v>1967.757517208067</v>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS8" t="n">
+        <v>3371.875377369884</v>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU8" t="n">
+        <v>3036.167129573724</v>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW8" t="n">
+        <v>1709.334621422534</v>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY8" t="n">
+        <v>2885.822968240551</v>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA8" t="n">
+        <v>3249.607535321822</v>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE8" t="n">
+        <v>1760.355029585799</v>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="AC9" t="n">
@@ -969,6 +1465,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ9" t="n">
+        <v>3393.913778529164</v>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS9" t="n">
+        <v>1382.985146721411</v>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU9" t="n">
+        <v>1715.976331360947</v>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW9" t="n">
+        <v>1452.421205168458</v>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY9" t="n">
+        <v>731.4937809443305</v>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA9" t="n">
+        <v>2067.685062190557</v>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE9" t="n">
+        <v>2628.305760173892</v>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="AC10" t="n">
@@ -995,6 +1547,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ10" t="n">
+        <v>2063.458519502476</v>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS10" t="n">
+        <v>1936.058447047458</v>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU10" t="n">
+        <v>2246.407438715131</v>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW10" t="n">
+        <v>1882.019079821278</v>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY10" t="n">
+        <v>1243.509238014733</v>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA10" t="n">
+        <v>1572.877671778771</v>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE10" t="n">
+        <v>1158.072696534235</v>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="AC11" t="n">
@@ -1021,6 +1629,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ11" t="n">
+        <v>1069.315300084531</v>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS11" t="n">
+        <v>1639.596667069195</v>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU11" t="n">
+        <v>3332.628909551987</v>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW11" t="n">
+        <v>1658.314213259269</v>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY11" t="n">
+        <v>1183.130056756431</v>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA11" t="n">
+        <v>3530.068832266635</v>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE11" t="n">
+        <v>2830.576017389205</v>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="AC12" t="n">
@@ -1047,6 +1711,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ12" t="n">
+        <v>827.496679145031</v>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS12" t="n">
+        <v>1656.804733727811</v>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU12" t="n">
+        <v>2673.288250211328</v>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW12" t="n">
+        <v>684.6999154691464</v>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY12" t="n">
+        <v>1875.981161695448</v>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA12" t="n">
+        <v>1690.918971138752</v>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE12" t="n">
+        <v>1858.47119913054</v>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="AC13" t="n">
@@ -1073,6 +1793,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ13" t="n">
+        <v>2198.405989614781</v>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS13" t="n">
+        <v>2166.405023547881</v>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU13" t="n">
+        <v>1410.75957010023</v>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW13" t="n">
+        <v>1786.619973433161</v>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY13" t="n">
+        <v>2304.06955681681</v>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA13" t="n">
+        <v>1283.359497645212</v>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE13" t="n">
+        <v>3094.433039487985</v>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="AC14" t="n">
@@ -1099,6 +1875,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ14" t="n">
+        <v>2354.486173167492</v>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS14" t="n">
+        <v>1141.468421688202</v>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU14" t="n">
+        <v>2234.331602463471</v>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW14" t="n">
+        <v>812.4018838304554</v>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY14" t="n">
+        <v>3066.960512015458</v>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA14" t="n">
+        <v>1933.341383890835</v>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE14" t="n">
+        <v>2893.068469991547</v>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="AC15" t="n">
@@ -1125,6 +1957,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ15" t="n">
+        <v>1815.300084530854</v>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS15" t="n">
+        <v>1907.982127762348</v>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU15" t="n">
+        <v>1325.624924526024</v>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW15" t="n">
+        <v>1321.700277744234</v>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY15" t="n">
+        <v>3053.677092138631</v>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA15" t="n">
+        <v>697.6814394396813</v>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE15" t="n">
+        <v>2107.233425914745</v>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="AC16" t="n">
@@ -1151,6 +2039,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ16" t="n">
+        <v>1848.50863422292</v>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS16" t="n">
+        <v>2119.611158072697</v>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU16" t="n">
+        <v>2092.742422412753</v>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW16" t="n">
+        <v>2500.905687718875</v>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY16" t="n">
+        <v>1371.513102282333</v>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA16" t="n">
+        <v>3726.301171356117</v>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE16" t="n">
+        <v>1721.712353580486</v>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="AC17" t="n">
@@ -1177,6 +2121,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ17" t="n">
+        <v>1046.975003018959</v>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS17" t="n">
+        <v>1987.380751117015</v>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU17" t="n">
+        <v>2153.725395483638</v>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW17" t="n">
+        <v>2672.080666586161</v>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY17" t="n">
+        <v>1557.782876464195</v>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA17" t="n">
+        <v>3999.818862456226</v>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE17" t="n">
+        <v>1390.230648472407</v>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="AC18" t="n">
@@ -1203,6 +2203,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ18" t="n">
+        <v>1453.326892887333</v>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS18" t="n">
+        <v>984.784446322908</v>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU18" t="n">
+        <v>2314.937809443305</v>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW18" t="n">
+        <v>1677.937447168217</v>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY18" t="n">
+        <v>1747.071609708973</v>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA18" t="n">
+        <v>2303.465765004227</v>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE18" t="n">
+        <v>1584.65161212414</v>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="AC19" t="n">
@@ -1229,6 +2285,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ19" t="n">
+        <v>1145.393068469992</v>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS19" t="n">
+        <v>1180.714889506099</v>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU19" t="n">
+        <v>1341.927303465765</v>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW19" t="n">
+        <v>1250.754739765729</v>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY19" t="n">
+        <v>2621.965946141771</v>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA19" t="n">
+        <v>3290.061586764884</v>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE19" t="n">
+        <v>2004.890713681923</v>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="AC20" t="n">
@@ -1255,6 +2367,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ20" t="n">
+        <v>2178.17896389325</v>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS20" t="n">
+        <v>2103.610675039247</v>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU20" t="n">
+        <v>1391.136336191282</v>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW20" t="n">
+        <v>1738.61852433281</v>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY20" t="n">
+        <v>2738.195870064003</v>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA20" t="n">
+        <v>1700.277744233789</v>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
+      <c r="BE20" t="n">
+        <v>964.2555246950853</v>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="AC21" t="n">
@@ -1281,6 +2449,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ21" t="n">
+        <v>1636.57770800628</v>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS21" t="n">
+        <v>2280.823572032364</v>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU21" t="n">
+        <v>1605.784325564546</v>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW21" t="n">
+        <v>1392.042023910156</v>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY21" t="n">
+        <v>1595.821760656926</v>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA21" t="n">
+        <v>3471.501026446082</v>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="AC22" t="n">
@@ -1307,6 +2523,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ22" t="n">
+        <v>915.9521796884436</v>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS22" t="n">
+        <v>2556.756430382804</v>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU22" t="n">
+        <v>1403.514068349233</v>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW22" t="n">
+        <v>874.2905446202151</v>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY22" t="n">
+        <v>2967.334862939259</v>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA22" t="n">
+        <v>2131.083202511774</v>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="AC23" t="n">
@@ -1333,6 +2597,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ23" t="n">
+        <v>1654.69146238377</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS23" t="n">
+        <v>1622.69049631687</v>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU23" t="n">
+        <v>1387.211689409492</v>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW23" t="n">
+        <v>1718.693394517571</v>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY23" t="n">
+        <v>2599.92754498249</v>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA23" t="n">
+        <v>1394.155295254197</v>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="AC24" t="n">
@@ -1359,6 +2671,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ24" t="n">
+        <v>2227.689892525058</v>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS24" t="n">
+        <v>2284.14442700157</v>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU24" t="n">
+        <v>3389.989131747374</v>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW24" t="n">
+        <v>1462.081874169786</v>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY24" t="n">
+        <v>2838.727206859076</v>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA24" t="n">
+        <v>1668.57867407318</v>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="AC25" t="n">
@@ -1385,6 +2745,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ25" t="n">
+        <v>1189.771766694844</v>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS25" t="n">
+        <v>1903.755585074267</v>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU25" t="n">
+        <v>2295.918367346939</v>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW25" t="n">
+        <v>2554.643159038764</v>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY25" t="n">
+        <v>1117.920540997464</v>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA25" t="n">
+        <v>1534.838787586041</v>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="AC26" t="n">
@@ -1411,6 +2819,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ26" t="n">
+        <v>1503.441613331724</v>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS26" t="n">
+        <v>2009.721048182587</v>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU26" t="n">
+        <v>2004.890713681923</v>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW26" t="n">
+        <v>1726.844583987441</v>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY26" t="n">
+        <v>2890.653302741216</v>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA26" t="n">
+        <v>1018.294891921266</v>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="AC27" t="n">
@@ -1437,6 +2893,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ27" t="n">
+        <v>1530.612244897959</v>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS27" t="n">
+        <v>2440.526506460573</v>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU27" t="n">
+        <v>1610.916555971501</v>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW27" t="n">
+        <v>891.4986112788313</v>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY27" t="n">
+        <v>1549.027895181742</v>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA27" t="n">
+        <v>1823.149378094433</v>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="AC28" t="n">
@@ -1463,6 +2967,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ28" t="n">
+        <v>2209.274242241276</v>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS28" t="n">
+        <v>1465.402729138993</v>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU28" t="n">
+        <v>2600.229440888782</v>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW28" t="n">
+        <v>1457.251539669122</v>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY28" t="n">
+        <v>3241.15444994566</v>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA28" t="n">
+        <v>1559.292355995653</v>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="AC29" t="n">
@@ -1489,6 +3041,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ29" t="n">
+        <v>1725.938896268567</v>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS29" t="n">
+        <v>1088.032846274605</v>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU29" t="n">
+        <v>2508.754981282455</v>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW29" t="n">
+        <v>2323.99468663205</v>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY29" t="n">
+        <v>1928.209153483879</v>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA29" t="n">
+        <v>1802.016664654028</v>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="AC30" t="n">
@@ -1515,6 +3115,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ30" t="n">
+        <v>2416.072938050961</v>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS30" t="n">
+        <v>1362.456225093588</v>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU30" t="n">
+        <v>955.19864750634</v>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW30" t="n">
+        <v>2211.085617679025</v>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY30" t="n">
+        <v>2645.8157227388</v>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA30" t="n">
+        <v>1326.228716338607</v>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="AC31" t="n">
@@ -1541,6 +3189,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ31" t="n">
+        <v>2885.52107233426</v>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS31" t="n">
+        <v>1843.678299722256</v>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU31" t="n">
+        <v>1882.622871633861</v>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW31" t="n">
+        <v>993.8413235116534</v>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY31" t="n">
+        <v>1933.643279797126</v>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA31" t="n">
+        <v>1720.202874049028</v>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="AC32" t="n">
@@ -1567,6 +3263,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ32" t="n">
+        <v>1249.547156140563</v>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS32" t="n">
+        <v>1395.966670691946</v>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU32" t="n">
+        <v>1180.714889506099</v>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW32" t="n">
+        <v>1708.428933703659</v>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY32" t="n">
+        <v>982.973070885159</v>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA32" t="n">
+        <v>2347.542567322788</v>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="AC33" t="n">
@@ -1593,6 +3337,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ33" t="n">
+        <v>1520.045888177757</v>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS33" t="n">
+        <v>1412.570945537979</v>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU33" t="n">
+        <v>2464.376283057602</v>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW33" t="n">
+        <v>1047.578794831542</v>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY33" t="n">
+        <v>1979.531457553436</v>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA33" t="n">
+        <v>1424.344885883348</v>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="AC34" t="n">
@@ -1619,6 +3411,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ34" t="n">
+        <v>1704.50428692187</v>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS34" t="n">
+        <v>1415.891800507186</v>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU34" t="n">
+        <v>1376.343436782998</v>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW34" t="n">
+        <v>1418.306967757517</v>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY34" t="n">
+        <v>2144.064726482309</v>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA34" t="n">
+        <v>2470.716097089724</v>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="AC35" t="n">
@@ -1645,6 +3485,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ35" t="n">
+        <v>1717.183914986113</v>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS35" t="n">
+        <v>1259.811616954474</v>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU35" t="n">
+        <v>1942.700156985872</v>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW35" t="n">
+        <v>2101.799299601498</v>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY35" t="n">
+        <v>2426.639294771163</v>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA35" t="n">
+        <v>1103.731433401763</v>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="AC36" t="n">
@@ -1671,6 +3559,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ36" t="n">
+        <v>2333.353459727086</v>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS36" t="n">
+        <v>1736.50525298877</v>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU36" t="n">
+        <v>1830.092983939138</v>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW36" t="n">
+        <v>1211.810167854124</v>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY36" t="n">
+        <v>1185.545224006763</v>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA36" t="n">
+        <v>918.3673469387757</v>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="AC37" t="n">
@@ -1697,6 +3633,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ37" t="n">
+        <v>1628.728414442701</v>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS37" t="n">
+        <v>1584.349716217848</v>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU37" t="n">
+        <v>2521.132713440406</v>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW37" t="n">
+        <v>2409.733124018839</v>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY37" t="n">
+        <v>1583.142132592682</v>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA37" t="n">
+        <v>2571.247433884797</v>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="AC38" t="n">
@@ -1723,6 +3707,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ38" t="n">
+        <v>1806.243207342109</v>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS38" t="n">
+        <v>1456.043956043956</v>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU38" t="n">
+        <v>1863.603429537496</v>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW38" t="n">
+        <v>1261.01920057964</v>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY38" t="n">
+        <v>1816.205772249729</v>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA38" t="n">
+        <v>2809.141408042507</v>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="AC39" t="n">
@@ -1749,6 +3781,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ39" t="n">
+        <v>1480.195628547277</v>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS39" t="n">
+        <v>1032.785895423258</v>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU39" t="n">
+        <v>2174.25431711146</v>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW39" t="n">
+        <v>1688.201907982128</v>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY39" t="n">
+        <v>1337.096968965101</v>
+      </c>
+      <c r="AZ39" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA39" t="n">
+        <v>1125.166042748461</v>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="AC40" t="n">
@@ -1775,6 +3855,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ40" t="n">
+        <v>1392.042023910156</v>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS40" t="n">
+        <v>1777.261200338124</v>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU40" t="n">
+        <v>1476.270981765487</v>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW40" t="n">
+        <v>1702.089119671538</v>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY40" t="n">
+        <v>2376.222678420481</v>
+      </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA40" t="n">
+        <v>2128.668035261442</v>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="AC41" t="n">
@@ -1801,6 +3929,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ41" t="n">
+        <v>827.7985750513225</v>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS41" t="n">
+        <v>1580.425069436059</v>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU41" t="n">
+        <v>1052.409129332206</v>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW41" t="n">
+        <v>1143.279797125951</v>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY41" t="n">
+        <v>1054.220504769956</v>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA41" t="n">
+        <v>600.7728535201064</v>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="AC42" t="n">
@@ -1827,6 +4003,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ42" t="n">
+        <v>2215.010264460815</v>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS42" t="n">
+        <v>2536.831300567565</v>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1365.475184156503</v>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW42" t="n">
+        <v>2174.25431711146</v>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY42" t="n">
+        <v>1033.691583142133</v>
+      </c>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA42" t="n">
+        <v>1375.135853157831</v>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="AC43" t="n">
@@ -1853,6 +4077,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ43" t="n">
+        <v>1218.753773698829</v>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS43" t="n">
+        <v>1882.320975727569</v>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU43" t="n">
+        <v>681.0771645936483</v>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW43" t="n">
+        <v>2243.086583745925</v>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY43" t="n">
+        <v>1149.619611158073</v>
+      </c>
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA43" t="n">
+        <v>1969.568892645816</v>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="AC44" t="n">
@@ -1879,6 +4151,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ44" t="n">
+        <v>1713.863060016907</v>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS44" t="n">
+        <v>3127.641589180052</v>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU44" t="n">
+        <v>1618.162057722498</v>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW44" t="n">
+        <v>908.1028861248643</v>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY44" t="n">
+        <v>961.2365656321703</v>
+      </c>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA44" t="n">
+        <v>1864.50911725637</v>
+      </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="AC45" t="n">
@@ -1905,6 +4225,54 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ45" t="n">
+        <v>2081.270377973675</v>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS45" t="n">
+        <v>1765.487259992755</v>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU45" t="n">
+        <v>787.9483154208431</v>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW45" t="n">
+        <v>2378.03405385823</v>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY45" t="n">
+        <v>1671.899529042387</v>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BA45" t="n">
+        <v>1225.999275449825</v>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="AC46" t="n">
@@ -1931,6 +4299,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ46" t="n">
+        <v>1405.929235599566</v>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS46" t="n">
+        <v>1917.039004951093</v>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU46" t="n">
+        <v>1878.698224852071</v>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW46" t="n">
+        <v>2079.157106629635</v>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY46" t="n">
+        <v>1651.974399227147</v>
+      </c>
+      <c r="AZ46" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="AC47" t="n">
@@ -1957,6 +4365,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ47" t="n">
+        <v>1015.275932858351</v>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS47" t="n">
+        <v>2647.023306363966</v>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU47" t="n">
+        <v>2070.402125347181</v>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW47" t="n">
+        <v>1734.090085738438</v>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY47" t="n">
+        <v>2189.952904238619</v>
+      </c>
+      <c r="AZ47" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="AC48" t="n">
@@ -1983,6 +4431,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ48" t="n">
+        <v>2381.656804733728</v>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS48" t="n">
+        <v>1616.65257819104</v>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU48" t="n">
+        <v>1205.168457915711</v>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW48" t="n">
+        <v>1305.699794710784</v>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY48" t="n">
+        <v>1968.965100833233</v>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="AC49" t="n">
@@ -2009,6 +4497,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ49" t="n">
+        <v>1744.958338364932</v>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS49" t="n">
+        <v>1811.375437749065</v>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU49" t="n">
+        <v>2007.909672744838</v>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW49" t="n">
+        <v>1526.989494022461</v>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY49" t="n">
+        <v>1265.849535080305</v>
+      </c>
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="AC50" t="n">
@@ -2035,6 +4563,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ50" t="n">
+        <v>2438.715131022824</v>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS50" t="n">
+        <v>1976.210602584229</v>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU50" t="n">
+        <v>896.027049873204</v>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW50" t="n">
+        <v>2149.800748701848</v>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY50" t="n">
+        <v>1832.810047095762</v>
+      </c>
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="AC51" t="n">
@@ -2061,6 +4629,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ51" t="n">
+        <v>2231.916435213139</v>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS51" t="n">
+        <v>1355.512619248883</v>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU51" t="n">
+        <v>1384.192730346577</v>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW51" t="n">
+        <v>1932.133800265669</v>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY51" t="n">
+        <v>940.1038521917645</v>
+      </c>
+      <c r="AZ51" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="AC52" t="n">
@@ -2087,6 +4695,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ52" t="n">
+        <v>1569.254920903273</v>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS52" t="n">
+        <v>1260.717304673349</v>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU52" t="n">
+        <v>2148.895060982974</v>
+      </c>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW52" t="n">
+        <v>931.6507668156022</v>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY52" t="n">
+        <v>1103.429537495472</v>
+      </c>
+      <c r="AZ52" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="AC53" t="n">
@@ -2113,6 +4761,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ53" t="n">
+        <v>1427.665740852554</v>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS53" t="n">
+        <v>1681.258302137423</v>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU53" t="n">
+        <v>1967.757517208067</v>
+      </c>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW53" t="n">
+        <v>1109.16555971501</v>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY53" t="n">
+        <v>776.7781668880572</v>
+      </c>
+      <c r="AZ53" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="AC54" t="n">
@@ -2139,6 +4827,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ54" t="n">
+        <v>1392.645815722739</v>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS54" t="n">
+        <v>998.9735539186091</v>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU54" t="n">
+        <v>1171.05422050477</v>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW54" t="n">
+        <v>1328.341987682647</v>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY54" t="n">
+        <v>1359.135370124381</v>
+      </c>
+      <c r="AZ54" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="AC55" t="n">
@@ -2165,6 +4893,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ55" t="n">
+        <v>1496.196111580727</v>
+      </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS55" t="n">
+        <v>1577.708006279435</v>
+      </c>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU55" t="n">
+        <v>940.1038521917645</v>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW55" t="n">
+        <v>811.496196111581</v>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY55" t="n">
+        <v>1272.793140925009</v>
+      </c>
+      <c r="AZ55" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="AC56" t="n">
@@ -2191,6 +4959,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ56" t="n">
+        <v>1276.113995894216</v>
+      </c>
+      <c r="AR56" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS56" t="n">
+        <v>1224.791691824659</v>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU56" t="n">
+        <v>1163.808718753774</v>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW56" t="n">
+        <v>1310.228233305157</v>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY56" t="n">
+        <v>2097.572756913417</v>
+      </c>
+      <c r="AZ56" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="AC57" t="n">
@@ -2217,6 +5025,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ57" t="n">
+        <v>929.8393913778531</v>
+      </c>
+      <c r="AR57" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS57" t="n">
+        <v>873.6867528076322</v>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU57" t="n">
+        <v>1196.715372539549</v>
+      </c>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW57" t="n">
+        <v>1019.20057964014</v>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY57" t="n">
+        <v>1529.102765366502</v>
+      </c>
+      <c r="AZ57" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="AC58" t="n">
@@ -2243,6 +5091,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ58" t="n">
+        <v>806.9677575172083</v>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS58" t="n">
+        <v>624.6226301171357</v>
+      </c>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU58" t="n">
+        <v>566.6586161091657</v>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW58" t="n">
+        <v>1157.770800627944</v>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY58" t="n">
+        <v>2231.010747494264</v>
+      </c>
+      <c r="AZ58" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="AC59" t="n">
@@ -2269,6 +5157,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ59" t="n">
+        <v>769.8345610433524</v>
+      </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS59" t="n">
+        <v>1454.534476512499</v>
+      </c>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU59" t="n">
+        <v>1323.813549088275</v>
+      </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW59" t="n">
+        <v>1160.185967878276</v>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY59" t="n">
+        <v>3387.272068590751</v>
+      </c>
+      <c r="AZ59" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="AC60" t="n">
@@ -2295,6 +5223,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ60" t="n">
+        <v>973.6142977901221</v>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS60" t="n">
+        <v>1946.624803767661</v>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU60" t="n">
+        <v>1548.72599927545</v>
+      </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW60" t="n">
+        <v>1714.768747735781</v>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY60" t="n">
+        <v>2218.633015336312</v>
+      </c>
+      <c r="AZ60" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="AC61" t="n">
@@ -2321,6 +5289,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ61" t="n">
+        <v>2070.402125347181</v>
+      </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS61" t="n">
+        <v>1443.062432073421</v>
+      </c>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU61" t="n">
+        <v>973.3124018838307</v>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW61" t="n">
+        <v>1721.712353580486</v>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY61" t="n">
+        <v>1558.386668276778</v>
+      </c>
+      <c r="AZ61" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="AC62" t="n">
@@ -2347,6 +5355,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ62" t="n">
+        <v>1317.775630962444</v>
+      </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS62" t="n">
+        <v>1660.729380509601</v>
+      </c>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU62" t="n">
+        <v>2142.857142857143</v>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW62" t="n">
+        <v>2608.984422171236</v>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY62" t="n">
+        <v>995.350803043111</v>
+      </c>
+      <c r="AZ62" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="AC63" t="n">
@@ -2373,6 +5421,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ63" t="n">
+        <v>1719.599082236445</v>
+      </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS63" t="n">
+        <v>1285.774664895544</v>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU63" t="n">
+        <v>832.6289095519867</v>
+      </c>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW63" t="n">
+        <v>2465.583866682769</v>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY63" t="n">
+        <v>494.8073904117861</v>
+      </c>
+      <c r="AZ63" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="AC64" t="n">
@@ -2399,6 +5487,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ64" t="n">
+        <v>1296.039125709456</v>
+      </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS64" t="n">
+        <v>1296.341021615747</v>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU64" t="n">
+        <v>1552.348750150948</v>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW64" t="n">
+        <v>1786.619973433161</v>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY64" t="n">
+        <v>985.9920299480741</v>
+      </c>
+      <c r="AZ64" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="AC65" t="n">
@@ -2425,6 +5553,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ65" t="n">
+        <v>841.0819949281489</v>
+      </c>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS65" t="n">
+        <v>1806.243207342109</v>
+      </c>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU65" t="n">
+        <v>1145.0911725637</v>
+      </c>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW65" t="n">
+        <v>716.7008815360465</v>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY65" t="n">
+        <v>710.0591715976333</v>
+      </c>
+      <c r="AZ65" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="AC66" t="n">
@@ -2451,6 +5619,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ66" t="n">
+        <v>2298.333534597271</v>
+      </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS66" t="n">
+        <v>2854.727689892526</v>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU66" t="n">
+        <v>1740.42989977056</v>
+      </c>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW66" t="n">
+        <v>827.7985750513225</v>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY66" t="n">
+        <v>1268.566598236928</v>
+      </c>
+      <c r="AZ66" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="AC67" t="n">
@@ -2477,6 +5685,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ67" t="n">
+        <v>1639.898562975486</v>
+      </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS67" t="n">
+        <v>1945.417220142495</v>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU67" t="n">
+        <v>880.0265668397539</v>
+      </c>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW67" t="n">
+        <v>1280.340538582297</v>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY67" t="n">
+        <v>640.3212172442943</v>
+      </c>
+      <c r="AZ67" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="AC68" t="n">
@@ -2503,6 +5751,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ68" t="n">
+        <v>1947.228595580244</v>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS68" t="n">
+        <v>2223.765245743268</v>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU68" t="n">
+        <v>2175.763796642918</v>
+      </c>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW68" t="n">
+        <v>567.2624079217487</v>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY68" t="n">
+        <v>1057.843255645454</v>
+      </c>
+      <c r="AZ68" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="AC69" t="n">
@@ -2529,6 +5817,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ69" t="n">
+        <v>1714.768747735781</v>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS69" t="n">
+        <v>2764.762709817655</v>
+      </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU69" t="n">
+        <v>2003.683130056757</v>
+      </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW69" t="n">
+        <v>1801.714768747736</v>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY69" t="n">
+        <v>685.605603188021</v>
+      </c>
+      <c r="AZ69" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="AC70" t="n">
@@ -2555,6 +5883,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ70" t="n">
+        <v>3170.208911967155</v>
+      </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS70" t="n">
+        <v>1285.774664895544</v>
+      </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU70" t="n">
+        <v>1406.533027412149</v>
+      </c>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW70" t="n">
+        <v>2823.028619731917</v>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY70" t="n">
+        <v>767.1174978867289</v>
+      </c>
+      <c r="AZ70" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="AC71" t="n">
@@ -2581,6 +5949,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ71" t="n">
+        <v>1374.83395725154</v>
+      </c>
+      <c r="AR71" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS71" t="n">
+        <v>2044.740973312402</v>
+      </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU71" t="n">
+        <v>710.9648593165078</v>
+      </c>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW71" t="n">
+        <v>1384.494626252868</v>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY71" t="n">
+        <v>706.4364207221352</v>
+      </c>
+      <c r="AZ71" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="AC72" t="n">
@@ -2607,6 +6015,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ72" t="n">
+        <v>1526.68759811617</v>
+      </c>
+      <c r="AR72" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS72" t="n">
+        <v>1320.79459002536</v>
+      </c>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU72" t="n">
+        <v>1952.058930080909</v>
+      </c>
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW72" t="n">
+        <v>1471.742543171115</v>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY72" t="n">
+        <v>659.038763434368</v>
+      </c>
+      <c r="AZ72" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="AC73" t="n">
@@ -2625,6 +6073,46 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ73" t="n">
+        <v>1140.260838063036</v>
+      </c>
+      <c r="AR73" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS73" t="n">
+        <v>2007.003985025963</v>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AU73" t="n">
+        <v>1905.265064605724</v>
+      </c>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0011.jpg</t>
+        </is>
+      </c>
+      <c r="AW73" t="n">
+        <v>1608.199492814878</v>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY73" t="n">
+        <v>701.9079821277625</v>
+      </c>
+      <c r="AZ73" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="AC74" t="n">
@@ -2643,6 +6131,38 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ74" t="n">
+        <v>1451.213621543292</v>
+      </c>
+      <c r="AR74" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS74" t="n">
+        <v>1530.612244897959</v>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AW74" t="n">
+        <v>1750.090568771888</v>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY74" t="n">
+        <v>601.3766453326895</v>
+      </c>
+      <c r="AZ74" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="AC75" t="n">
@@ -2661,6 +6181,38 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ75" t="n">
+        <v>1482.610795797609</v>
+      </c>
+      <c r="AR75" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS75" t="n">
+        <v>1196.413476633257</v>
+      </c>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AW75" t="n">
+        <v>1308.114961961116</v>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY75" t="n">
+        <v>1386.306001690617</v>
+      </c>
+      <c r="AZ75" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="AC76" t="n">
@@ -2679,6 +6231,38 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ76" t="n">
+        <v>2061.647144064727</v>
+      </c>
+      <c r="AR76" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS76" t="n">
+        <v>566.6586161091657</v>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AW76" t="n">
+        <v>1686.994324356962</v>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY76" t="n">
+        <v>1040.937084893129</v>
+      </c>
+      <c r="AZ76" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="AC77" t="n">
@@ -2697,6 +6281,38 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ77" t="n">
+        <v>2674.495833836494</v>
+      </c>
+      <c r="AR77" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS77" t="n">
+        <v>1020.106267359015</v>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AW77" t="n">
+        <v>1785.412389807994</v>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY77" t="n">
+        <v>887.5739644970416</v>
+      </c>
+      <c r="AZ77" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="AI78" t="n">
@@ -2707,6 +6323,38 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="AQ78" t="n">
+        <v>1376.343436782998</v>
+      </c>
+      <c r="AR78" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS78" t="n">
+        <v>409.6727448375801</v>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AW78" t="n">
+        <v>940.4057480980559</v>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY78" t="n">
+        <v>741.7582417582419</v>
+      </c>
+      <c r="AZ78" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="AI79" t="n">
@@ -2715,6 +6363,400 @@
       <c r="AJ79" t="inlineStr">
         <is>
           <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1133.317232218331</v>
+      </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AS79" t="n">
+        <v>998.3697621060261</v>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="AW79" t="n">
+        <v>2079.459002535926</v>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY79" t="n">
+        <v>696.1719599082238</v>
+      </c>
+      <c r="AZ79" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="AQ80" t="n">
+        <v>775.2686873565996</v>
+      </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW80" t="n">
+        <v>1322.605965463109</v>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY80" t="n">
+        <v>801.8355271102525</v>
+      </c>
+      <c r="AZ80" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="AQ81" t="n">
+        <v>1827.677816688806</v>
+      </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW81" t="n">
+        <v>1517.328825021133</v>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY81" t="n">
+        <v>591.4140804250695</v>
+      </c>
+      <c r="AZ81" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="AQ82" t="n">
+        <v>1294.227750271707</v>
+      </c>
+      <c r="AR82" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW82" t="n">
+        <v>937.3867890351409</v>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY82" t="n">
+        <v>1979.833353459728</v>
+      </c>
+      <c r="AZ82" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="AQ83" t="n">
+        <v>691.0397295012681</v>
+      </c>
+      <c r="AR83" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW83" t="n">
+        <v>692.2473131264342</v>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY83" t="n">
+        <v>1766.091051805338</v>
+      </c>
+      <c r="AZ83" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="AQ84" t="n">
+        <v>1596.123656563217</v>
+      </c>
+      <c r="AR84" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW84" t="n">
+        <v>1400.495109286318</v>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY84" t="n">
+        <v>1720.202874049028</v>
+      </c>
+      <c r="AZ84" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="AQ85" t="n">
+        <v>946.1417703175947</v>
+      </c>
+      <c r="AR85" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW85" t="n">
+        <v>1807.148895060983</v>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="AY85" t="n">
+        <v>993.2375316990704</v>
+      </c>
+      <c r="AZ85" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="AQ86" t="n">
+        <v>1106.448496558387</v>
+      </c>
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW86" t="n">
+        <v>1538.76343436783</v>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="AQ87" t="n">
+        <v>1775.751720806666</v>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW87" t="n">
+        <v>1132.411544499457</v>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="AQ88" t="n">
+        <v>1204.866562009419</v>
+      </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW88" t="n">
+        <v>1955.681680956407</v>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="AQ89" t="n">
+        <v>2590.568771887454</v>
+      </c>
+      <c r="AR89" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW89" t="n">
+        <v>1062.975486052409</v>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="AQ90" t="n">
+        <v>696.7757517208069</v>
+      </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW90" t="n">
+        <v>1383.287042627702</v>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="AQ91" t="n">
+        <v>852.2521434609348</v>
+      </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW91" t="n">
+        <v>723.6444873807512</v>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="AQ92" t="n">
+        <v>542.2050476995533</v>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AW92" t="n">
+        <v>2200.217365052531</v>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="AQ93" t="n">
+        <v>730.2861973191646</v>
+      </c>
+      <c r="AR93" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="AQ94" t="n">
+        <v>539.1860886366381</v>
+      </c>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="AQ95" t="n">
+        <v>1496.196111580727</v>
+      </c>
+      <c r="AR95" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="AQ96" t="n">
+        <v>1083.504407680232</v>
+      </c>
+      <c r="AR96" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="AQ97" t="n">
+        <v>945.5379785050117</v>
+      </c>
+      <c r="AR97" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="AQ98" t="n">
+        <v>435.032000966067</v>
+      </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AQ99" t="n">
+        <v>1418.306967757517</v>
+      </c>
+      <c r="AR99" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="AQ100" t="n">
+        <v>814.8170510807876</v>
+      </c>
+      <c r="AR100" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
         </is>
       </c>
     </row>

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF100"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -641,6 +641,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG1" t="n">
+        <v>3092.319768143945</v>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
+      <c r="BI1" t="n">
+        <v>3370.667793744718</v>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>CK2_2_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -827,6 +843,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG2" t="n">
+        <v>2892.766574085256</v>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -949,6 +973,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG3" t="n">
+        <v>1382.381354908828</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1055,6 +1087,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG4" t="n">
+        <v>1585.859195749306</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1161,6 +1201,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG5" t="n">
+        <v>3071.48895060983</v>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1259,6 +1307,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG6" t="n">
+        <v>705.2288370969691</v>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1405,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG7" t="n">
+        <v>1756.430382804009</v>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1439,6 +1503,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG8" t="n">
+        <v>2316.447288974762</v>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="AC9" t="n">
@@ -1521,6 +1593,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG9" t="n">
+        <v>774.9667914503081</v>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="AC10" t="n">
@@ -1603,6 +1683,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG10" t="n">
+        <v>1857.565511411666</v>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="AC11" t="n">
@@ -1685,6 +1773,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG11" t="n">
+        <v>3432.254558628186</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="AC12" t="n">
@@ -1767,6 +1863,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG12" t="n">
+        <v>1322.304069556817</v>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="AC13" t="n">
@@ -1849,6 +1953,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG13" t="n">
+        <v>2103.308779132955</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="AC14" t="n">
@@ -1931,6 +2043,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG14" t="n">
+        <v>1784.50670208912</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="AC15" t="n">
@@ -2013,6 +2133,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG15" t="n">
+        <v>3243.2677212897</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="AC16" t="n">
@@ -2095,6 +2223,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG16" t="n">
+        <v>1555.669605120155</v>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="AC17" t="n">
@@ -2177,6 +2313,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG17" t="n">
+        <v>2628.305760173892</v>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="AC18" t="n">
@@ -2259,6 +2403,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG18" t="n">
+        <v>2736.082598719962</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="AC19" t="n">
@@ -2341,6 +2493,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG19" t="n">
+        <v>2841.142374109408</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="AC20" t="n">
@@ -2423,6 +2583,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BG20" t="n">
+        <v>2453.508030431108</v>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="AC21" t="n">
@@ -2497,6 +2665,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG21" t="n">
+        <v>2108.441009539911</v>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="AC22" t="n">
@@ -2571,6 +2747,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG22" t="n">
+        <v>1711.145996860283</v>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="AC23" t="n">
@@ -2645,6 +2829,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG23" t="n">
+        <v>1949.643762830576</v>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="AC24" t="n">
@@ -2719,6 +2911,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG24" t="n">
+        <v>2670.571187054704</v>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="AC25" t="n">
@@ -2793,6 +2993,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG25" t="n">
+        <v>2157.951938171719</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="AC26" t="n">
@@ -2867,6 +3075,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG26" t="n">
+        <v>1914.32194179447</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="AC27" t="n">
@@ -2941,6 +3157,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG27" t="n">
+        <v>1059.654631083203</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="AC28" t="n">
@@ -3015,6 +3239,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG28" t="n">
+        <v>1575.292839029103</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="AC29" t="n">
@@ -3089,6 +3321,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG29" t="n">
+        <v>996.2564907619854</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="AC30" t="n">
@@ -3163,6 +3403,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG30" t="n">
+        <v>1583.444028498974</v>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="AC31" t="n">
@@ -3237,6 +3485,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG31" t="n">
+        <v>2029.646177997827</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="AC32" t="n">
@@ -3311,6 +3567,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG32" t="n">
+        <v>2214.708368554523</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="AC33" t="n">
@@ -3385,6 +3649,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG33" t="n">
+        <v>714.2857142857144</v>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="AC34" t="n">
@@ -3459,6 +3731,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG34" t="n">
+        <v>1993.418669242845</v>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="AC35" t="n">
@@ -3533,6 +3813,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG35" t="n">
+        <v>1809.865958217607</v>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="AC36" t="n">
@@ -3607,6 +3895,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG36" t="n">
+        <v>1664.65402729139</v>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="AC37" t="n">
@@ -3681,6 +3977,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG37" t="n">
+        <v>979.9541118222439</v>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="AC38" t="n">
@@ -3755,6 +4059,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG38" t="n">
+        <v>1676.126071730468</v>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="AC39" t="n">
@@ -3829,6 +4141,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG39" t="n">
+        <v>665.6804733727812</v>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="AC40" t="n">
@@ -3903,6 +4223,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG40" t="n">
+        <v>1151.732882502114</v>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="AC41" t="n">
@@ -3977,6 +4305,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG41" t="n">
+        <v>942.8209153483881</v>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="AC42" t="n">
@@ -4051,6 +4387,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG42" t="n">
+        <v>1076.862697741819</v>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="AC43" t="n">
@@ -4125,6 +4469,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG43" t="n">
+        <v>1165.620094191523</v>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="AC44" t="n">
@@ -4199,6 +4551,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG44" t="n">
+        <v>935.5754135973918</v>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="AC45" t="n">
@@ -4273,6 +4633,14 @@
           <t>S-CTL4-1_1.jpg</t>
         </is>
       </c>
+      <c r="BG45" t="n">
+        <v>1112.788310590509</v>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="AC46" t="n">
@@ -4339,6 +4707,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG46" t="n">
+        <v>2262.407921748581</v>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="AC47" t="n">
@@ -4405,6 +4781,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG47" t="n">
+        <v>1936.058447047458</v>
+      </c>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="AC48" t="n">
@@ -4471,6 +4855,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG48" t="n">
+        <v>1610.61466006521</v>
+      </c>
+      <c r="BH48" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="AC49" t="n">
@@ -4537,6 +4929,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG49" t="n">
+        <v>1539.065330274122</v>
+      </c>
+      <c r="BH49" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="AC50" t="n">
@@ -4603,6 +5003,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG50" t="n">
+        <v>2127.762347542568</v>
+      </c>
+      <c r="BH50" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="AC51" t="n">
@@ -4669,6 +5077,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG51" t="n">
+        <v>3037.978505011473</v>
+      </c>
+      <c r="BH51" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="AC52" t="n">
@@ -4735,6 +5151,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG52" t="n">
+        <v>1372.7206859075</v>
+      </c>
+      <c r="BH52" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="AC53" t="n">
@@ -4801,6 +5225,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG53" t="n">
+        <v>1259.509721048183</v>
+      </c>
+      <c r="BH53" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="AC54" t="n">
@@ -4867,6 +5299,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG54" t="n">
+        <v>2652.457432677214</v>
+      </c>
+      <c r="BH54" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="AC55" t="n">
@@ -4933,6 +5373,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG55" t="n">
+        <v>1091.353701243811</v>
+      </c>
+      <c r="BH55" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="AC56" t="n">
@@ -4999,6 +5447,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG56" t="n">
+        <v>1691.220867045043</v>
+      </c>
+      <c r="BH56" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="AC57" t="n">
@@ -5065,6 +5521,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG57" t="n">
+        <v>1678.843134887091</v>
+      </c>
+      <c r="BH57" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="AC58" t="n">
@@ -5131,6 +5595,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG58" t="n">
+        <v>971.8029223523731</v>
+      </c>
+      <c r="BH58" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="AC59" t="n">
@@ -5197,6 +5669,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG59" t="n">
+        <v>734.5127400072456</v>
+      </c>
+      <c r="BH59" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="AC60" t="n">
@@ -5263,6 +5743,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG60" t="n">
+        <v>2896.691220867046</v>
+      </c>
+      <c r="BH60" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="AC61" t="n">
@@ -5329,6 +5817,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG61" t="n">
+        <v>787.34452360826</v>
+      </c>
+      <c r="BH61" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="AC62" t="n">
@@ -5395,6 +5891,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG62" t="n">
+        <v>735.7203236324117</v>
+      </c>
+      <c r="BH62" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="AC63" t="n">
@@ -5461,6 +5965,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG63" t="n">
+        <v>2321.579519381718</v>
+      </c>
+      <c r="BH63" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="AC64" t="n">
@@ -5527,6 +6039,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG64" t="n">
+        <v>1222.678420480619</v>
+      </c>
+      <c r="BH64" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="AC65" t="n">
@@ -5593,6 +6113,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG65" t="n">
+        <v>1764.883468180172</v>
+      </c>
+      <c r="BH65" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="AC66" t="n">
@@ -5659,6 +6187,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG66" t="n">
+        <v>2736.988286438836</v>
+      </c>
+      <c r="BH66" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="AC67" t="n">
@@ -5725,6 +6261,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG67" t="n">
+        <v>2444.451153242363</v>
+      </c>
+      <c r="BH67" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="AC68" t="n">
@@ -5791,6 +6335,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG68" t="n">
+        <v>1727.146479893733</v>
+      </c>
+      <c r="BH68" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="AC69" t="n">
@@ -5857,6 +6409,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG69" t="n">
+        <v>717.3046733486295</v>
+      </c>
+      <c r="BH69" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="AC70" t="n">
@@ -5923,6 +6483,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG70" t="n">
+        <v>899.0460089361191</v>
+      </c>
+      <c r="BH70" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="AC71" t="n">
@@ -5989,6 +6557,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG71" t="n">
+        <v>1623.898079942036</v>
+      </c>
+      <c r="BH71" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="AC72" t="n">
@@ -6055,6 +6631,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG72" t="n">
+        <v>2033.872720685908</v>
+      </c>
+      <c r="BH72" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="AC73" t="n">
@@ -6113,6 +6697,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG73" t="n">
+        <v>1065.390653302741</v>
+      </c>
+      <c r="BH73" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="AC74" t="n">
@@ -6163,6 +6755,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG74" t="n">
+        <v>1504.347301050598</v>
+      </c>
+      <c r="BH74" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="AC75" t="n">
@@ -6213,6 +6813,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG75" t="n">
+        <v>992.0299480739043</v>
+      </c>
+      <c r="BH75" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="AC76" t="n">
@@ -6263,6 +6871,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG76" t="n">
+        <v>930.7450790967276</v>
+      </c>
+      <c r="BH76" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="AC77" t="n">
@@ -6313,6 +6929,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG77" t="n">
+        <v>704.9269411906776</v>
+      </c>
+      <c r="BH77" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="AI78" t="n">
@@ -6355,6 +6979,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG78" t="n">
+        <v>1319.285110493902</v>
+      </c>
+      <c r="BH78" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="AI79" t="n">
@@ -6397,6 +7029,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG79" t="n">
+        <v>922.8957855331483</v>
+      </c>
+      <c r="BH79" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="AQ80" t="n">
@@ -6423,6 +7063,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG80" t="n">
+        <v>791.5710662963412</v>
+      </c>
+      <c r="BH80" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="AQ81" t="n">
@@ -6449,6 +7097,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG81" t="n">
+        <v>950.3683130056759</v>
+      </c>
+      <c r="BH81" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="AQ82" t="n">
@@ -6475,6 +7131,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG82" t="n">
+        <v>1115.203477840841</v>
+      </c>
+      <c r="BH82" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="AQ83" t="n">
@@ -6501,6 +7165,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG83" t="n">
+        <v>594.1311435816932</v>
+      </c>
+      <c r="BH83" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="AQ84" t="n">
@@ -6527,6 +7199,14 @@
           <t>S-CTL4-2_0009.jpg</t>
         </is>
       </c>
+      <c r="BG84" t="n">
+        <v>655.1141166525783</v>
+      </c>
+      <c r="BH84" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="AQ85" t="n">
@@ -6551,6 +7231,14 @@
       <c r="AZ85" t="inlineStr">
         <is>
           <t>S-CTL4-2_0009.jpg</t>
+        </is>
+      </c>
+      <c r="BG85" t="n">
+        <v>1259.811616954474</v>
+      </c>
+      <c r="BH85" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
     </row>

--- a/savefile.xlsx
+++ b/savefile.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -657,6 +657,30 @@
           <t>CK2_2_0006.jpg</t>
         </is>
       </c>
+      <c r="BK1" t="n">
+        <v>3143.642072213501</v>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>CK2_2_0006.jpg</t>
+        </is>
+      </c>
+      <c r="BM1" t="n">
+        <v>2540.152155536771</v>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO1" t="n">
+        <v>1219.659461417703</v>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -851,6 +875,30 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BK2" t="n">
+        <v>2890.653302741216</v>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>CK2_2_0006.jpg</t>
+        </is>
+      </c>
+      <c r="BM2" t="n">
+        <v>2070.402125347181</v>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>2667.854123898081</v>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -981,6 +1029,30 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BK3" t="n">
+        <v>3508.93611882623</v>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>CK2_2_0006.jpg</t>
+        </is>
+      </c>
+      <c r="BM3" t="n">
+        <v>1685.182948919213</v>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>2503.320854969207</v>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1095,6 +1167,30 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BK4" t="n">
+        <v>1418.608863663809</v>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>CK2_2_0006.jpg</t>
+        </is>
+      </c>
+      <c r="BM4" t="n">
+        <v>2553.73747131989</v>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO4" t="n">
+        <v>2113.875135853158</v>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1209,6 +1305,30 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BK5" t="n">
+        <v>3571.730467334864</v>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>CK2_2_0006.jpg</t>
+        </is>
+      </c>
+      <c r="BM5" t="n">
+        <v>2587.85170873083</v>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO5" t="n">
+        <v>1754.920903272552</v>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1315,6 +1435,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM6" t="n">
+        <v>751.1170148532788</v>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO6" t="n">
+        <v>2234.935394276054</v>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1413,6 +1549,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM7" t="n">
+        <v>1448.79845429296</v>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO7" t="n">
+        <v>3474.218089602706</v>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1511,6 +1663,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM8" t="n">
+        <v>1385.400313971743</v>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO8" t="n">
+        <v>2521.736505252989</v>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="AC9" t="n">
@@ -1601,6 +1769,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM9" t="n">
+        <v>1728.957855331482</v>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO9" t="n">
+        <v>1276.113995894216</v>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="AC10" t="n">
@@ -1691,6 +1875,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM10" t="n">
+        <v>3024.091293322063</v>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO10" t="n">
+        <v>1385.098418065451</v>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="AC11" t="n">
@@ -1781,6 +1981,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM11" t="n">
+        <v>979.0484241033694</v>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO11" t="n">
+        <v>2291.993720565149</v>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="AC12" t="n">
@@ -1871,6 +2087,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM12" t="n">
+        <v>1638.087187537737</v>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO12" t="n">
+        <v>1256.188866078976</v>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="AC13" t="n">
@@ -1961,6 +2193,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM13" t="n">
+        <v>873.3848569013406</v>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO13" t="n">
+        <v>1415.288008694602</v>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="AC14" t="n">
@@ -2051,6 +2299,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM14" t="n">
+        <v>1151.129090689531</v>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO14" t="n">
+        <v>731.4937809443305</v>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="AC15" t="n">
@@ -2141,6 +2405,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM15" t="n">
+        <v>1264.038159642555</v>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO15" t="n">
+        <v>1027.351769110011</v>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="AC16" t="n">
@@ -2231,6 +2511,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM16" t="n">
+        <v>496.0149740369521</v>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO16" t="n">
+        <v>832.6289095519867</v>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="AC17" t="n">
@@ -2321,6 +2617,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM17" t="n">
+        <v>683.7942277502718</v>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO17" t="n">
+        <v>2074.024876222679</v>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="AC18" t="n">
@@ -2411,6 +2723,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM18" t="n">
+        <v>2542.265426880812</v>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO18" t="n">
+        <v>1089.240429899771</v>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="AC19" t="n">
@@ -2501,6 +2829,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM19" t="n">
+        <v>2280.521676126072</v>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO19" t="n">
+        <v>639.1136336191282</v>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="AC20" t="n">
@@ -2591,6 +2935,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM20" t="n">
+        <v>975.7275691341628</v>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO20" t="n">
+        <v>861.0071247433887</v>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="AC21" t="n">
@@ -2673,6 +3033,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM21" t="n">
+        <v>870.3658978384256</v>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO21" t="n">
+        <v>2212.896993116774</v>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="AC22" t="n">
@@ -2755,6 +3131,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM22" t="n">
+        <v>2653.061224489797</v>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO22" t="n">
+        <v>895.4232580606209</v>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="AC23" t="n">
@@ -2837,6 +3229,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM23" t="n">
+        <v>1747.977297427847</v>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO23" t="n">
+        <v>2599.92754498249</v>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="AC24" t="n">
@@ -2919,6 +3327,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM24" t="n">
+        <v>1644.728897476151</v>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO24" t="n">
+        <v>704.6250452843861</v>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="AC25" t="n">
@@ -3001,6 +3425,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM25" t="n">
+        <v>1363.663808718754</v>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO25" t="n">
+        <v>1021.313850984181</v>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="AC26" t="n">
@@ -3083,6 +3523,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM26" t="n">
+        <v>1253.773698828644</v>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO26" t="n">
+        <v>648.7743026204566</v>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="AC27" t="n">
@@ -3165,6 +3621,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM27" t="n">
+        <v>1062.371694239826</v>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO27" t="n">
+        <v>1963.229078613694</v>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="AC28" t="n">
@@ -3247,6 +3719,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM28" t="n">
+        <v>1255.283178360102</v>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO28" t="n">
+        <v>1091.05180533752</v>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="AC29" t="n">
@@ -3329,6 +3817,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM29" t="n">
+        <v>1779.676367588456</v>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO29" t="n">
+        <v>2034.778408404783</v>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="AC30" t="n">
@@ -3411,6 +3915,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM30" t="n">
+        <v>826.2890955198649</v>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO30" t="n">
+        <v>1624.501871754619</v>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="AC31" t="n">
@@ -3493,6 +4013,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM31" t="n">
+        <v>1082.296824055066</v>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO31" t="n">
+        <v>1024.634705953388</v>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="AC32" t="n">
@@ -3575,6 +4111,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM32" t="n">
+        <v>1465.402729138993</v>
+      </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO32" t="n">
+        <v>665.0766815601982</v>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="AC33" t="n">
@@ -3657,6 +4209,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM33" t="n">
+        <v>2049.873203719358</v>
+      </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO33" t="n">
+        <v>691.6435213138511</v>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="AC34" t="n">
@@ -3739,6 +4307,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM34" t="n">
+        <v>607.7164593648112</v>
+      </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO34" t="n">
+        <v>1507.970051926096</v>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="AC35" t="n">
@@ -3821,6 +4405,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM35" t="n">
+        <v>858.8938533993481</v>
+      </c>
+      <c r="BN35" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO35" t="n">
+        <v>960.0289820070042</v>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="AC36" t="n">
@@ -3903,6 +4503,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM36" t="n">
+        <v>2182.10361067504</v>
+      </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO36" t="n">
+        <v>1564.424586402609</v>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="AC37" t="n">
@@ -3985,6 +4601,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM37" t="n">
+        <v>625.5283178360103</v>
+      </c>
+      <c r="BN37" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO37" t="n">
+        <v>1725.033208549693</v>
+      </c>
+      <c r="BP37" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="AC38" t="n">
@@ -4067,6 +4699,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM38" t="n">
+        <v>1923.076923076924</v>
+      </c>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO38" t="n">
+        <v>766.5137060741458</v>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="AC39" t="n">
@@ -4149,6 +4797,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM39" t="n">
+        <v>1456.647747856539</v>
+      </c>
+      <c r="BN39" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO39" t="n">
+        <v>1152.638570220988</v>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="AC40" t="n">
@@ -4231,6 +4895,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM40" t="n">
+        <v>2474.942639777805</v>
+      </c>
+      <c r="BN40" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO40" t="n">
+        <v>1152.638570220988</v>
+      </c>
+      <c r="BP40" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="AC41" t="n">
@@ -4313,6 +4993,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM41" t="n">
+        <v>2662.118101678542</v>
+      </c>
+      <c r="BN41" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO41" t="n">
+        <v>721.5312160367107</v>
+      </c>
+      <c r="BP41" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="AC42" t="n">
@@ -4395,6 +5091,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM42" t="n">
+        <v>1249.245260234271</v>
+      </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO42" t="n">
+        <v>1279.736746769714</v>
+      </c>
+      <c r="BP42" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="AC43" t="n">
@@ -4477,6 +5189,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM43" t="n">
+        <v>2663.929477116291</v>
+      </c>
+      <c r="BN43" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO43" t="n">
+        <v>1017.389204202391</v>
+      </c>
+      <c r="BP43" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="AC44" t="n">
@@ -4559,6 +5287,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM44" t="n">
+        <v>1358.83347421809</v>
+      </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO44" t="n">
+        <v>2327.617437507548</v>
+      </c>
+      <c r="BP44" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="AC45" t="n">
@@ -4641,6 +5385,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM45" t="n">
+        <v>1983.154208428934</v>
+      </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO45" t="n">
+        <v>1037.314334017631</v>
+      </c>
+      <c r="BP45" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="AC46" t="n">
@@ -4715,6 +5475,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM46" t="n">
+        <v>2029.948073904118</v>
+      </c>
+      <c r="BN46" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO46" t="n">
+        <v>811.1943002052894</v>
+      </c>
+      <c r="BP46" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="AC47" t="n">
@@ -4789,6 +5565,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM47" t="n">
+        <v>862.2147083685547</v>
+      </c>
+      <c r="BN47" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO47" t="n">
+        <v>1892.887332447772</v>
+      </c>
+      <c r="BP47" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="AC48" t="n">
@@ -4863,6 +5655,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM48" t="n">
+        <v>1658.61610916556</v>
+      </c>
+      <c r="BN48" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO48" t="n">
+        <v>967.2744837580004</v>
+      </c>
+      <c r="BP48" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="AC49" t="n">
@@ -4937,6 +5745,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM49" t="n">
+        <v>1000.483033450067</v>
+      </c>
+      <c r="BN49" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO49" t="n">
+        <v>2281.427363844947</v>
+      </c>
+      <c r="BP49" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="AC50" t="n">
@@ -5011,6 +5835,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM50" t="n">
+        <v>2673.288250211328</v>
+      </c>
+      <c r="BN50" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO50" t="n">
+        <v>1973.191643521314</v>
+      </c>
+      <c r="BP50" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="AC51" t="n">
@@ -5085,6 +5925,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM51" t="n">
+        <v>747.4942639777806</v>
+      </c>
+      <c r="BN51" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO51" t="n">
+        <v>1378.154812220747</v>
+      </c>
+      <c r="BP51" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="AC52" t="n">
@@ -5159,6 +6015,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM52" t="n">
+        <v>981.7654872599929</v>
+      </c>
+      <c r="BN52" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO52" t="n">
+        <v>1187.960391257095</v>
+      </c>
+      <c r="BP52" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="AC53" t="n">
@@ -5233,6 +6105,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM53" t="n">
+        <v>805.1563820794591</v>
+      </c>
+      <c r="BN53" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO53" t="n">
+        <v>690.7378335949766</v>
+      </c>
+      <c r="BP53" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="AC54" t="n">
@@ -5307,6 +6195,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM54" t="n">
+        <v>1352.493660185968</v>
+      </c>
+      <c r="BN54" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO54" t="n">
+        <v>1466.006520951576</v>
+      </c>
+      <c r="BP54" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="AC55" t="n">
@@ -5381,6 +6285,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM55" t="n">
+        <v>872.4791691824661</v>
+      </c>
+      <c r="BN55" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO55" t="n">
+        <v>2896.389324960754</v>
+      </c>
+      <c r="BP55" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="AC56" t="n">
@@ -5455,6 +6375,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM56" t="n">
+        <v>1180.714889506099</v>
+      </c>
+      <c r="BN56" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO56" t="n">
+        <v>912.027532906654</v>
+      </c>
+      <c r="BP56" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="AC57" t="n">
@@ -5529,6 +6465,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM57" t="n">
+        <v>1077.768385460693</v>
+      </c>
+      <c r="BN57" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO57" t="n">
+        <v>1182.526264943848</v>
+      </c>
+      <c r="BP57" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="AC58" t="n">
@@ -5603,6 +6555,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM58" t="n">
+        <v>2074.628668035262</v>
+      </c>
+      <c r="BN58" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO58" t="n">
+        <v>1011.049390170269</v>
+      </c>
+      <c r="BP58" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="AC59" t="n">
@@ -5677,6 +6645,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM59" t="n">
+        <v>1080.183552711025</v>
+      </c>
+      <c r="BN59" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO59" t="n">
+        <v>815.1189469870791</v>
+      </c>
+      <c r="BP59" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="AC60" t="n">
@@ -5751,6 +6735,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM60" t="n">
+        <v>961.5384615384618</v>
+      </c>
+      <c r="BN60" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO60" t="n">
+        <v>1106.146600652095</v>
+      </c>
+      <c r="BP60" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="AC61" t="n">
@@ -5825,6 +6825,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM61" t="n">
+        <v>1257.094553797851</v>
+      </c>
+      <c r="BN61" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO61" t="n">
+        <v>2025.419635309746</v>
+      </c>
+      <c r="BP61" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="AC62" t="n">
@@ -5899,6 +6915,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM62" t="n">
+        <v>1368.494143219418</v>
+      </c>
+      <c r="BN62" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO62" t="n">
+        <v>1294.529646177998</v>
+      </c>
+      <c r="BP62" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="AC63" t="n">
@@ -5973,6 +7005,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM63" t="n">
+        <v>1944.511532423621</v>
+      </c>
+      <c r="BN63" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO63" t="n">
+        <v>222.4972829368434</v>
+      </c>
+      <c r="BP63" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="AC64" t="n">
@@ -6047,6 +7095,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM64" t="n">
+        <v>1142.072213500785</v>
+      </c>
+      <c r="BN64" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO64" t="n">
+        <v>728.776717787707</v>
+      </c>
+      <c r="BP64" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="AC65" t="n">
@@ -6121,6 +7185,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM65" t="n">
+        <v>1091.05180533752</v>
+      </c>
+      <c r="BN65" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO65" t="n">
+        <v>751.1170148532788</v>
+      </c>
+      <c r="BP65" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="AC66" t="n">
@@ -6195,6 +7275,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM66" t="n">
+        <v>1259.509721048183</v>
+      </c>
+      <c r="BN66" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO66" t="n">
+        <v>697.0776476270984</v>
+      </c>
+      <c r="BP66" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="AC67" t="n">
@@ -6269,6 +7365,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM67" t="n">
+        <v>1076.258905929236</v>
+      </c>
+      <c r="BN67" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO67" t="n">
+        <v>1606.086221470837</v>
+      </c>
+      <c r="BP67" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="AC68" t="n">
@@ -6343,6 +7455,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM68" t="n">
+        <v>1247.131988890231</v>
+      </c>
+      <c r="BN68" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO68" t="n">
+        <v>770.740248762227</v>
+      </c>
+      <c r="BP68" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="AC69" t="n">
@@ -6417,6 +7545,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM69" t="n">
+        <v>590.2064967999036</v>
+      </c>
+      <c r="BN69" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO69" t="n">
+        <v>1093.16507668156</v>
+      </c>
+      <c r="BP69" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="AC70" t="n">
@@ -6491,6 +7635,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM70" t="n">
+        <v>647.264823088999</v>
+      </c>
+      <c r="BN70" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO70" t="n">
+        <v>4090.387634343679</v>
+      </c>
+      <c r="BP70" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="AC71" t="n">
@@ -6565,6 +7725,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM71" t="n">
+        <v>728.4748218814154</v>
+      </c>
+      <c r="BN71" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO71" t="n">
+        <v>1412.87284144427</v>
+      </c>
+      <c r="BP71" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="AC72" t="n">
@@ -6639,6 +7815,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM72" t="n">
+        <v>724.5501750996258</v>
+      </c>
+      <c r="BN72" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO72" t="n">
+        <v>1255.283178360102</v>
+      </c>
+      <c r="BP72" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="AC73" t="n">
@@ -6705,6 +7897,22 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BM73" t="n">
+        <v>1459.364811013163</v>
+      </c>
+      <c r="BN73" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0007.jpg</t>
+        </is>
+      </c>
+      <c r="BO73" t="n">
+        <v>1082.900615867649</v>
+      </c>
+      <c r="BP73" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="AC74" t="n">
@@ -6763,6 +7971,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO74" t="n">
+        <v>1511.894698707886</v>
+      </c>
+      <c r="BP74" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="AC75" t="n">
@@ -6821,6 +8037,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO75" t="n">
+        <v>559.1112184518779</v>
+      </c>
+      <c r="BP75" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="AC76" t="n">
@@ -6879,6 +8103,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO76" t="n">
+        <v>635.1889868373386</v>
+      </c>
+      <c r="BP76" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="AC77" t="n">
@@ -6937,6 +8169,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO77" t="n">
+        <v>1428.87332447772</v>
+      </c>
+      <c r="BP77" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="AI78" t="n">
@@ -6987,6 +8227,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO78" t="n">
+        <v>922.8957855331483</v>
+      </c>
+      <c r="BP78" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="AI79" t="n">
@@ -7037,6 +8285,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO79" t="n">
+        <v>792.1748581089242</v>
+      </c>
+      <c r="BP79" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="AQ80" t="n">
@@ -7071,6 +8327,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO80" t="n">
+        <v>650.2837821519141</v>
+      </c>
+      <c r="BP80" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="AQ81" t="n">
@@ -7105,6 +8369,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO81" t="n">
+        <v>897.2346334983699</v>
+      </c>
+      <c r="BP81" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="AQ82" t="n">
@@ -7139,6 +8411,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO82" t="n">
+        <v>925.3109527834805</v>
+      </c>
+      <c r="BP82" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="AQ83" t="n">
@@ -7173,6 +8453,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO83" t="n">
+        <v>1269.472285955803</v>
+      </c>
+      <c r="BP83" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="AQ84" t="n">
@@ -7207,6 +8495,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO84" t="n">
+        <v>844.1009539910641</v>
+      </c>
+      <c r="BP84" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="AQ85" t="n">
@@ -7241,6 +8537,14 @@
           <t>S-CTL4-1_0008.jpg</t>
         </is>
       </c>
+      <c r="BO85" t="n">
+        <v>950.0664170993844</v>
+      </c>
+      <c r="BP85" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="AQ86" t="n">
@@ -7259,6 +8563,14 @@
           <t>S-CTL4-2_0010.jpg</t>
         </is>
       </c>
+      <c r="BO86" t="n">
+        <v>707.0402125347182</v>
+      </c>
+      <c r="BP86" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="AQ87" t="n">
@@ -7277,6 +8589,14 @@
           <t>S-CTL4-2_0010.jpg</t>
         </is>
       </c>
+      <c r="BO87" t="n">
+        <v>737.8335949764523</v>
+      </c>
+      <c r="BP87" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="AQ88" t="n">
@@ -7293,6 +8613,14 @@
       <c r="AX88" t="inlineStr">
         <is>
           <t>S-CTL4-2_0010.jpg</t>
+        </is>
+      </c>
+      <c r="BO88" t="n">
+        <v>761.0795797608986</v>
+      </c>
+      <c r="BP88" t="inlineStr">
+        <is>
+          <t>S-CTL4-1_0006.jpg</t>
         </is>
       </c>
     </row>
